--- a/Especies.xlsx
+++ b/Especies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="3880" yWindow="0" windowWidth="21080" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="197">
   <si>
     <t>Nombre comun</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Mango</t>
   </si>
   <si>
-    <t> Mangifera</t>
-  </si>
-  <si>
     <t>Naranja</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>Gaiac</t>
   </si>
   <si>
-    <t>Bwapetro</t>
-  </si>
-  <si>
     <t>Sed</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
     <t>Zamann</t>
   </si>
   <si>
-    <t>Terminalia</t>
-  </si>
-  <si>
     <t>Tandrakayou</t>
   </si>
   <si>
@@ -432,9 +423,6 @@
     <t>Allophylus</t>
   </si>
   <si>
-    <t>Calophyllum</t>
-  </si>
-  <si>
     <t>Damari</t>
   </si>
   <si>
@@ -478,6 +466,181 @@
   </si>
   <si>
     <t>Bwa anis</t>
+  </si>
+  <si>
+    <t>Mangifera indica</t>
+  </si>
+  <si>
+    <t>Only documented in 2GON. Bwa pit?</t>
+  </si>
+  <si>
+    <t>﻿Could this be bouziyet (breziyet), which is ﻿Comocladia spp., ﻿Anacardiaceae. Other name is bwa panyol. Only documented once, in Pandiassou2</t>
+  </si>
+  <si>
+    <t>still unidentified. Maybe maho ble (mahaut bleu, Hibiscus elatus, Malvaceae) or flamboyant bleu (jacaranda). It was only documented in plots 1GON and 2GON, and no pictures are associated with the entries.</t>
+  </si>
+  <si>
+    <t>Only documented in 2BO. Maybe ﻿magerit (marguerite), Annona urbaniana, Annonaceae</t>
+  </si>
+  <si>
+    <t>bwa loray</t>
+  </si>
+  <si>
+    <t>bwa majo</t>
+  </si>
+  <si>
+    <t>Basdan</t>
+  </si>
+  <si>
+    <t>Bazek</t>
+  </si>
+  <si>
+    <t>2 occurences, in 1BO. Maybe breziyet???</t>
+  </si>
+  <si>
+    <t>3 occurences, in 1BO. Maybe bwa don??? Badannier (zamann, Terminalia catappa, Combretaceae)</t>
+  </si>
+  <si>
+    <t>amande</t>
+  </si>
+  <si>
+    <t>bwa santi</t>
+  </si>
+  <si>
+    <t>Only 1 occurrence in 1BO. Maybe bois saint (gayak, Guaiacum spp., Zygophyllaceae) (Guaiacum sanctum) or satanye.</t>
+  </si>
+  <si>
+    <t>Calophyllum calaba</t>
+  </si>
+  <si>
+    <t>Clusiaceae</t>
+  </si>
+  <si>
+    <t>Z. martinicense = pine blan, bois epineux, bois peine, bois pine, bois pine blanc, bois pini; Z. flavum and Z. monophyllum both = bwa pine (but Haitian not listed);</t>
+  </si>
+  <si>
+    <r>
+      <t>Bwa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>petro</t>
+    </r>
+  </si>
+  <si>
+    <t>﻿Ateleia gummifer</t>
+  </si>
+  <si>
+    <t>bunchosia s.</t>
+  </si>
+  <si>
+    <t>bwa sip</t>
+  </si>
+  <si>
+    <t>tabebuia berteri</t>
+  </si>
+  <si>
+    <t>bumelia salicifolia</t>
+  </si>
+  <si>
+    <t>casseia</t>
+  </si>
+  <si>
+    <t>2 occurences in Pandiassou, which also includes casse so they must not be the same. Kas</t>
+  </si>
+  <si>
+    <t>chenn</t>
+  </si>
+  <si>
+    <t>crickcrack</t>
+  </si>
+  <si>
+    <t>In the Creole names table, latanye is always preceded by something. Latanye fran and latanye jon are the creole names for Sabal causiarum. Latanye chapo is a generic name for Sabal spp. The other genus with latanye is coccothrinax… Also zombia.</t>
+  </si>
+  <si>
+    <t>diversifolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 occurences in 1BO. Maybe ﻿Leucaena diversifolia, most commonly mentioned use of diversifolia. </t>
+  </si>
+  <si>
+    <t>Gliricidia sepium</t>
+  </si>
+  <si>
+    <t>piyon</t>
+  </si>
+  <si>
+    <t>Maybe peltophorum berteroanum (abbe rouge (H); abey, abey hembra (RD); abey moruro (C)), pithecellobium abbottii (abey (RD))… Almost all options are in Fabaceae</t>
+  </si>
+  <si>
+    <t>1 occurrence in Pandiassou. Nothing remotely similar among creole names. Maybe ikak (Chrysobalanus icaco?)</t>
+  </si>
+  <si>
+    <t>guasaban</t>
+  </si>
+  <si>
+    <t>kambala</t>
+  </si>
+  <si>
+    <t>1 in 1BO. Maybe karambola</t>
+  </si>
+  <si>
+    <t>2 occurrences in 1BO. Maybe guasara (C)/guasabara (PR)? Eugenia domingensis, Myrtaceae</t>
+  </si>
+  <si>
+    <t>saman</t>
+  </si>
+  <si>
+    <t>albizia saman</t>
+  </si>
+  <si>
+    <t>kuapihi</t>
+  </si>
+  <si>
+    <t>1 in 1BO.</t>
+  </si>
+  <si>
+    <t>letchie</t>
+  </si>
+  <si>
+    <t>1 in 1BO. Maybe bwa let</t>
+  </si>
+  <si>
+    <t>pandola</t>
+  </si>
+  <si>
+    <t>1 in Rantnavi. Probably pendoula</t>
+  </si>
+  <si>
+    <t>Citharexylum fruticosum</t>
+  </si>
+  <si>
+    <t>sambuca</t>
+  </si>
+  <si>
+    <t>1 in 1BO.  Maybe zaboka?</t>
+  </si>
+  <si>
+    <t>wichipita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a word for Morinda citrifolia in Puerto Rico. </t>
   </si>
 </sst>
 </file>
@@ -487,9 +650,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -507,6 +677,27 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -532,23 +723,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -853,7 +1061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -861,35 +1069,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
         <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -899,99 +1108,107 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
+      <c r="A6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
         <v>86</v>
       </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>120</v>
+      <c r="A13" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" t="s">
-        <v>114</v>
+      <c r="A15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1001,580 +1218,741 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" t="s">
-        <v>148</v>
+      <c r="A19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>118</v>
+      <c r="A20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>129</v>
+      <c r="A22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>35</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="6" t="s">
-        <v>119</v>
+      <c r="A25" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="4" t="s">
-        <v>90</v>
+      <c r="A26" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
       <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="3" customFormat="1">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32"/>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>45</v>
+      <c r="A37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>61</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" t="s">
-        <v>80</v>
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" t="s">
         <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" t="s">
-        <v>40</v>
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="3" customFormat="1">
       <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" ht="15">
+        <v>98</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49"/>
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="3" customFormat="1">
       <c r="A52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" ht="15">
+        <v>51</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53"/>
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" t="s">
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-      <c r="D57" t="s">
+      <c r="C57" t="s">
         <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" t="s">
-        <v>64</v>
+      <c r="A61" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="3" customFormat="1">
-      <c r="A64" s="3" t="s">
-        <v>58</v>
+      <c r="A62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="3" customFormat="1">
+      <c r="A63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" t="s">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="3" customFormat="1">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="3" customFormat="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71"/>
-      <c r="D71" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>90</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" t="s">
-        <v>93</v>
+      <c r="A73" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="5" t="s">
+      <c r="C80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D78" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D79" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" t="s">
-        <v>138</v>
-      </c>
-      <c r="D84" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="F89" s="5"/>
+      <c r="B86" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="154">
+      <c r="A87" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="70">
+      <c r="A88" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" t="s">
+        <v>164</v>
+      </c>
+      <c r="E89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E93" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E94" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E98" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E101" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" t="s">
+        <v>192</v>
+      </c>
+      <c r="E102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E103" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E104" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:E89">
+  <sortState ref="A1:D88">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
